--- a/data/sumup/results test train.xlsx
+++ b/data/sumup/results test train.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="klasyczne podejscie " sheetId="1" r:id="rId1"/>
-    <sheet name="n fold 100 200" sheetId="2" r:id="rId2"/>
-    <sheet name="n fold 250 500" sheetId="4" r:id="rId3"/>
-    <sheet name="n fold chart" sheetId="3" r:id="rId4"/>
+    <sheet name="klasyczne podejscie diff" sheetId="5" r:id="rId2"/>
+    <sheet name="n fold 100 200" sheetId="2" r:id="rId3"/>
+    <sheet name="n fold 250 500" sheetId="4" r:id="rId4"/>
+    <sheet name="n fold chart" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="102">
   <si>
     <t xml:space="preserve">window </t>
   </si>
@@ -56,12 +57,6 @@
     <t>GradientBoostingClassifier 3</t>
   </si>
   <si>
-    <t>attribiute selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all attribiutes </t>
-  </si>
-  <si>
     <t>microsoft</t>
   </si>
   <si>
@@ -69,9 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve">16 hours </t>
-  </si>
-  <si>
-    <t>rows to predict (each row 1 hour)</t>
   </si>
   <si>
     <t xml:space="preserve">klasycznie </t>
@@ -287,13 +279,7 @@
     <t>full 16</t>
   </si>
   <si>
-    <t>DecisionTreeClassifier 4</t>
-  </si>
-  <si>
     <t>DecisionTreeClassifier 6</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier 7</t>
   </si>
   <si>
     <t>1/3 zbioru</t>
@@ -325,6 +311,30 @@
   <si>
     <t>XGBRFClassifier 5</t>
   </si>
+  <si>
+    <t>SXGBClassifier 1</t>
+  </si>
+  <si>
+    <t>SXGBClassifier 2</t>
+  </si>
+  <si>
+    <t>SXGBClassifier 3</t>
+  </si>
+  <si>
+    <t>XGBRFClassifier 2</t>
+  </si>
+  <si>
+    <t>wielkość zbioru testowego</t>
+  </si>
+  <si>
+    <t>klasa powstała na przesunięciu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modele bez wstępnej selekcji atrybutów </t>
+  </si>
+  <si>
+    <t>modele z selekcją atrybutów</t>
+  </si>
 </sst>
 </file>
 
@@ -333,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +410,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -454,7 +482,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -467,17 +495,33 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Dane wyjściowe" xfId="3" builtinId="21"/>
@@ -532,14 +576,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Atrubuty</a:t>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wykres jakości modeli na zbiorze o klasie na podstawie przesunięcia 8 </a:t>
             </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> okienko 8</a:t>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>oraz dodatkowymi atrybutami wyliczonymi na podstawie wskaźników technicznych.</a:t>
             </a:r>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -606,7 +664,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'klasyczne podejscie '!$F$6:$F$20</c:f>
+              <c:f>'klasyczne podejscie '!$F$6:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -619,47 +677,47 @@
                   <c:v>DecisionTreeClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DecisionTreeClassifier 4</c:v>
+                  <c:v>RandomForestClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RandomForestClassifier 1</c:v>
+                  <c:v>RandomForestClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RandomForestClassifier 2</c:v>
+                  <c:v>RandomForestClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForestClassifier 3</c:v>
+                  <c:v>XGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>XGBClassifier 1</c:v>
+                  <c:v>XGBClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>XGBClassifier 2</c:v>
+                  <c:v>XGBRFClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>XGBRFClassifier 1</c:v>
+                  <c:v>XGBRFClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>XGBRFClassifier 5</c:v>
+                  <c:v>GradientBoostingClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GradientBoostingClassifier 1</c:v>
+                  <c:v>GradientBoostingClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>GradientBoostingClassifier 2</c:v>
+                  <c:v>SXGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>GradientBoostingClassifier 3</c:v>
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'klasyczne podejscie '!$H$6:$H$20</c:f>
+              <c:f>'klasyczne podejscie '!$H$6:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.3125</c:v>
                 </c:pt>
@@ -670,28 +728,37 @@
                   <c:v>0.390625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.318359375</c:v>
+                  <c:v>0.365234375</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.365234375</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.39453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.365234375</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39453125</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.365234375</c:v>
+                  <c:v>0.396484375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.396484375</c:v>
+                  <c:v>0.380859375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.380859375</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
                   <c:v>0.4296875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.423828125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.416015625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.435546875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,7 +795,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'klasyczne podejscie '!$F$6:$F$20</c:f>
+              <c:f>'klasyczne podejscie '!$F$6:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -741,47 +808,47 @@
                   <c:v>DecisionTreeClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DecisionTreeClassifier 4</c:v>
+                  <c:v>RandomForestClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RandomForestClassifier 1</c:v>
+                  <c:v>RandomForestClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RandomForestClassifier 2</c:v>
+                  <c:v>RandomForestClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForestClassifier 3</c:v>
+                  <c:v>XGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>XGBClassifier 1</c:v>
+                  <c:v>XGBClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>XGBClassifier 2</c:v>
+                  <c:v>XGBRFClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>XGBRFClassifier 1</c:v>
+                  <c:v>XGBRFClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>XGBRFClassifier 5</c:v>
+                  <c:v>GradientBoostingClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GradientBoostingClassifier 1</c:v>
+                  <c:v>GradientBoostingClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>GradientBoostingClassifier 2</c:v>
+                  <c:v>SXGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>GradientBoostingClassifier 3</c:v>
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'klasyczne podejscie '!$I$6:$I$20</c:f>
+              <c:f>'klasyczne podejscie '!$I$6:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.55078125</c:v>
                 </c:pt>
@@ -792,28 +859,37 @@
                   <c:v>0.515625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51171875</c:v>
+                  <c:v>0.34765625</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.34765625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34765625</c:v>
+                  <c:v>0.46484375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46484375</c:v>
+                  <c:v>0.45703125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45703125</c:v>
+                  <c:v>0.4453125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4453125</c:v>
+                  <c:v>0.4140625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4140625</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
                   <c:v>0.47265625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44140625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3984375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47265625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44921875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,7 +926,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'klasyczne podejscie '!$F$6:$F$20</c:f>
+              <c:f>'klasyczne podejscie '!$F$6:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -863,47 +939,47 @@
                   <c:v>DecisionTreeClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DecisionTreeClassifier 4</c:v>
+                  <c:v>RandomForestClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RandomForestClassifier 1</c:v>
+                  <c:v>RandomForestClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RandomForestClassifier 2</c:v>
+                  <c:v>RandomForestClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForestClassifier 3</c:v>
+                  <c:v>XGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>XGBClassifier 1</c:v>
+                  <c:v>XGBClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>XGBClassifier 2</c:v>
+                  <c:v>XGBRFClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>XGBRFClassifier 1</c:v>
+                  <c:v>XGBRFClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>XGBRFClassifier 5</c:v>
+                  <c:v>GradientBoostingClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GradientBoostingClassifier 1</c:v>
+                  <c:v>GradientBoostingClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>GradientBoostingClassifier 2</c:v>
+                  <c:v>SXGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>GradientBoostingClassifier 3</c:v>
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'klasyczne podejscie '!$J$6:$J$20</c:f>
+              <c:f>'klasyczne podejscie '!$J$6:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.3359375</c:v>
                 </c:pt>
@@ -914,28 +990,37 @@
                   <c:v>0.3984375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.390625</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.375</c:v>
+                  <c:v>0.53125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53125</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.5078125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5078125</c:v>
+                  <c:v>0.328125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.328125</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
                   <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3828125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2890625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3671875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +1057,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'klasyczne podejscie '!$F$6:$F$20</c:f>
+              <c:f>'klasyczne podejscie '!$F$6:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -985,47 +1070,47 @@
                   <c:v>DecisionTreeClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DecisionTreeClassifier 4</c:v>
+                  <c:v>RandomForestClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RandomForestClassifier 1</c:v>
+                  <c:v>RandomForestClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RandomForestClassifier 2</c:v>
+                  <c:v>RandomForestClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForestClassifier 3</c:v>
+                  <c:v>XGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>XGBClassifier 1</c:v>
+                  <c:v>XGBClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>XGBClassifier 2</c:v>
+                  <c:v>XGBRFClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>XGBRFClassifier 1</c:v>
+                  <c:v>XGBRFClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>XGBRFClassifier 5</c:v>
+                  <c:v>GradientBoostingClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GradientBoostingClassifier 1</c:v>
+                  <c:v>GradientBoostingClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>GradientBoostingClassifier 2</c:v>
+                  <c:v>SXGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>GradientBoostingClassifier 3</c:v>
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'klasyczne podejscie '!$K$6:$K$20</c:f>
+              <c:f>'klasyczne podejscie '!$K$6:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.375</c:v>
                 </c:pt>
@@ -1036,37 +1121,37 @@
                   <c:v>0.515625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.46875</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.53125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53125</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
                   <c:v>0.546875</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.453125</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.453125</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
                   <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.515625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1188,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'klasyczne podejscie '!$F$6:$F$20</c:f>
+              <c:f>'klasyczne podejscie '!$F$6:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1116,47 +1201,47 @@
                   <c:v>DecisionTreeClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DecisionTreeClassifier 4</c:v>
+                  <c:v>RandomForestClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RandomForestClassifier 1</c:v>
+                  <c:v>RandomForestClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RandomForestClassifier 2</c:v>
+                  <c:v>RandomForestClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForestClassifier 3</c:v>
+                  <c:v>XGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>XGBClassifier 1</c:v>
+                  <c:v>XGBClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>XGBClassifier 2</c:v>
+                  <c:v>XGBRFClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>XGBRFClassifier 1</c:v>
+                  <c:v>XGBRFClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>XGBRFClassifier 5</c:v>
+                  <c:v>GradientBoostingClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GradientBoostingClassifier 1</c:v>
+                  <c:v>GradientBoostingClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>GradientBoostingClassifier 2</c:v>
+                  <c:v>SXGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>GradientBoostingClassifier 3</c:v>
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'klasyczne podejscie '!$G$6:$G$20</c:f>
+              <c:f>'klasyczne podejscie '!$G$6:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.341822522881018</c:v>
                 </c:pt>
@@ -1167,37 +1252,37 @@
                   <c:v>0.368881814564265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.351770791882212</c:v>
+                  <c:v>0.37684042976521998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37684042976521998</c:v>
+                  <c:v>0.37922801432550701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37922801432550701</c:v>
+                  <c:v>0.360525268603263</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.360525268603263</c:v>
+                  <c:v>0.37206526064464701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37206526064464701</c:v>
+                  <c:v>0.36450457620373999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36450457620373999</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
                   <c:v>0.358392999204455</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="9">
                   <c:v>0.36913285600636397</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.37828162291169398</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>0.35759745425616501</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.35361972951471699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36898608349900502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38131212723657998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,6 +1313,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rodzaj modelu drzewiastego</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1276,7 +1386,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1324,6 +1434,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Jakość/accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1398,7 +1533,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1500,9 +1635,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Atrubuty okienko 16</a:t>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wykres jakości modeli na zbiorze o klasie na podstawie przesunięcia 16 </a:t>
             </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>oraz dodatkowymi atrybutami wyliczonymi na podstawie wskaźników technicznych.</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1569,7 +1723,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'klasyczne podejscie '!$F$6:$F$20</c:f>
+              <c:f>'klasyczne podejscie '!$F$6:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1582,47 +1736,47 @@
                   <c:v>DecisionTreeClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DecisionTreeClassifier 4</c:v>
+                  <c:v>RandomForestClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RandomForestClassifier 1</c:v>
+                  <c:v>RandomForestClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RandomForestClassifier 2</c:v>
+                  <c:v>RandomForestClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForestClassifier 3</c:v>
+                  <c:v>XGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>XGBClassifier 1</c:v>
+                  <c:v>XGBClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>XGBClassifier 2</c:v>
+                  <c:v>XGBRFClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>XGBRFClassifier 1</c:v>
+                  <c:v>XGBRFClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>XGBRFClassifier 5</c:v>
+                  <c:v>GradientBoostingClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GradientBoostingClassifier 1</c:v>
+                  <c:v>GradientBoostingClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>GradientBoostingClassifier 2</c:v>
+                  <c:v>SXGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>GradientBoostingClassifier 3</c:v>
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'klasyczne podejscie '!$M$6:$M$20</c:f>
+              <c:f>'klasyczne podejscie '!$M$6:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.3359375</c:v>
                 </c:pt>
@@ -1633,28 +1787,37 @@
                   <c:v>0.400390625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.333984375</c:v>
+                  <c:v>0.3828125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.3828125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3828125</c:v>
+                  <c:v>0.423828125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.423828125</c:v>
+                  <c:v>0.390625</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.37109375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.279296875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.326171875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33203125</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.390625</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.37109375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.279296875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.326171875</c:v>
+                <c:pt idx="12">
+                  <c:v>0.369140625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.396484375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,7 +1854,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'klasyczne podejscie '!$F$6:$F$20</c:f>
+              <c:f>'klasyczne podejscie '!$F$6:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1704,47 +1867,47 @@
                   <c:v>DecisionTreeClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DecisionTreeClassifier 4</c:v>
+                  <c:v>RandomForestClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RandomForestClassifier 1</c:v>
+                  <c:v>RandomForestClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RandomForestClassifier 2</c:v>
+                  <c:v>RandomForestClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForestClassifier 3</c:v>
+                  <c:v>XGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>XGBClassifier 1</c:v>
+                  <c:v>XGBClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>XGBClassifier 2</c:v>
+                  <c:v>XGBRFClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>XGBRFClassifier 1</c:v>
+                  <c:v>XGBRFClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>XGBRFClassifier 5</c:v>
+                  <c:v>GradientBoostingClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GradientBoostingClassifier 1</c:v>
+                  <c:v>GradientBoostingClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>GradientBoostingClassifier 2</c:v>
+                  <c:v>SXGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>GradientBoostingClassifier 3</c:v>
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'klasyczne podejscie '!$N$6:$N$20</c:f>
+              <c:f>'klasyczne podejscie '!$N$6:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.37890625</c:v>
                 </c:pt>
@@ -1755,28 +1918,37 @@
                   <c:v>0.265625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36328125</c:v>
+                  <c:v>0.3515625</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.3515625</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.39453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.453125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46484375</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.3515625</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39453125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.453125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46484375</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3515625</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.40234375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34765625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3984375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40234375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1985,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'klasyczne podejscie '!$F$6:$F$20</c:f>
+              <c:f>'klasyczne podejscie '!$F$6:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1826,47 +1998,47 @@
                   <c:v>DecisionTreeClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DecisionTreeClassifier 4</c:v>
+                  <c:v>RandomForestClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RandomForestClassifier 1</c:v>
+                  <c:v>RandomForestClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RandomForestClassifier 2</c:v>
+                  <c:v>RandomForestClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForestClassifier 3</c:v>
+                  <c:v>XGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>XGBClassifier 1</c:v>
+                  <c:v>XGBClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>XGBClassifier 2</c:v>
+                  <c:v>XGBRFClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>XGBRFClassifier 1</c:v>
+                  <c:v>XGBRFClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>XGBRFClassifier 5</c:v>
+                  <c:v>GradientBoostingClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GradientBoostingClassifier 1</c:v>
+                  <c:v>GradientBoostingClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>GradientBoostingClassifier 2</c:v>
+                  <c:v>SXGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>GradientBoostingClassifier 3</c:v>
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'klasyczne podejscie '!$O$6:$O$20</c:f>
+              <c:f>'klasyczne podejscie '!$O$6:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.15625</c:v>
                 </c:pt>
@@ -1877,28 +2049,37 @@
                   <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3671875</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.375</c:v>
+                  <c:v>0.3671875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3671875</c:v>
+                  <c:v>0.359375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.359375</c:v>
+                  <c:v>0.3046875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3046875</c:v>
+                  <c:v>0.34375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34375</c:v>
+                  <c:v>0.453125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3828125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,7 +2116,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'klasyczne podejscie '!$F$6:$F$20</c:f>
+              <c:f>'klasyczne podejscie '!$F$6:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1948,47 +2129,47 @@
                   <c:v>DecisionTreeClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DecisionTreeClassifier 4</c:v>
+                  <c:v>RandomForestClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RandomForestClassifier 1</c:v>
+                  <c:v>RandomForestClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RandomForestClassifier 2</c:v>
+                  <c:v>RandomForestClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForestClassifier 3</c:v>
+                  <c:v>XGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>XGBClassifier 1</c:v>
+                  <c:v>XGBClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>XGBClassifier 2</c:v>
+                  <c:v>XGBRFClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>XGBRFClassifier 1</c:v>
+                  <c:v>XGBRFClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>XGBRFClassifier 5</c:v>
+                  <c:v>GradientBoostingClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GradientBoostingClassifier 1</c:v>
+                  <c:v>GradientBoostingClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>GradientBoostingClassifier 2</c:v>
+                  <c:v>SXGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>GradientBoostingClassifier 3</c:v>
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'klasyczne podejscie '!$P$6:$P$20</c:f>
+              <c:f>'klasyczne podejscie '!$P$6:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.671875</c:v>
                 </c:pt>
@@ -1999,28 +2180,37 @@
                   <c:v>0.484375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.171875</c:v>
+                  <c:v>0.484375</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.484375</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.640625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.609375</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.484375</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.625</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.640625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.609375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.484375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6875</c:v>
+                <c:pt idx="13">
+                  <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,7 +2247,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'klasyczne podejscie '!$F$6:$F$20</c:f>
+              <c:f>'klasyczne podejscie '!$F$6:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -2070,47 +2260,47 @@
                   <c:v>DecisionTreeClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DecisionTreeClassifier 4</c:v>
+                  <c:v>RandomForestClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RandomForestClassifier 1</c:v>
+                  <c:v>RandomForestClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RandomForestClassifier 2</c:v>
+                  <c:v>RandomForestClassifier 3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForestClassifier 3</c:v>
+                  <c:v>XGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>XGBClassifier 1</c:v>
+                  <c:v>XGBClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>XGBClassifier 2</c:v>
+                  <c:v>XGBRFClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>XGBRFClassifier 1</c:v>
+                  <c:v>XGBRFClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>XGBRFClassifier 5</c:v>
+                  <c:v>GradientBoostingClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GradientBoostingClassifier 1</c:v>
+                  <c:v>GradientBoostingClassifier 2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>GradientBoostingClassifier 2</c:v>
+                  <c:v>SXGBClassifier 1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>GradientBoostingClassifier 3</c:v>
+                  <c:v>SXGBClassifier 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'klasyczne podejscie '!$L$6:$L$20</c:f>
+              <c:f>'klasyczne podejscie '!$L$6:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.31888667992047698</c:v>
                 </c:pt>
@@ -2121,28 +2311,37 @@
                   <c:v>0.34592445328031801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37813121272365802</c:v>
+                  <c:v>0.39872662156784699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39872662156784699</c:v>
+                  <c:v>0.39992041384798999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39992041384798999</c:v>
+                  <c:v>0.38042180660565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38042180660565</c:v>
+                  <c:v>0.34367541766109699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34367541766109699</c:v>
+                  <c:v>0.35560859188544103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35560859188544103</c:v>
+                  <c:v>0.34765314240254502</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34765314240254502</c:v>
+                  <c:v>0.33651551312649097</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33651551312649097</c:v>
+                  <c:v>0.34155069582504899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34711729622266402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33518886679920401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35109343936381698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,6 +2372,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rodzaj modelu drzewiastego</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -2251,7 +2475,7 @@
         <c:axId val="2027324959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.9"/>
+          <c:max val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2270,6 +2494,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Jakość/accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -2344,7 +2593,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2413,6 +2662,2121 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres jakości</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> modeli na zbiorze o klasie na podstawie przesunięcia 8 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>oraz dodatkowymi atrybutami wyliczonymi na podstawie przesunięcia.</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$F$6:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DecisionTreeClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DecisionTreeClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForestClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomForestClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RandomForestClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GradientBoostingClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoostingClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XGBRFClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRFClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>XGBClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'klasyczne podejscie diff'!$H$6:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.369140625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.353515625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39453125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33984375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.365234375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46484375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37109375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39453125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37109375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48046875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.388671875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.396484375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34765625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B980-4B39-97A0-F181903CEC5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$F$6:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DecisionTreeClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DecisionTreeClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForestClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomForestClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RandomForestClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GradientBoostingClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoostingClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XGBRFClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRFClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>XGBClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'klasyczne podejscie diff'!$I$6:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.31640625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3671875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37890625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37890625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48046875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48046875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43359375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53515625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43359375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43359375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39453125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40234375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B980-4B39-97A0-F181903CEC5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$F$6:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DecisionTreeClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DecisionTreeClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForestClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomForestClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RandomForestClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GradientBoostingClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoostingClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XGBRFClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRFClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>XGBClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'klasyczne podejscie diff'!$J$6:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3515625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4765625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5078125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5390625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5078125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5078125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4765625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4765625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B980-4B39-97A0-F181903CEC5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$F$6:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DecisionTreeClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DecisionTreeClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForestClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomForestClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RandomForestClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GradientBoostingClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoostingClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XGBRFClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRFClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>XGBClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'klasyczne podejscie diff'!$K$6:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.453125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.515625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B980-4B39-97A0-F181903CEC5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1/3 zbioru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$F$6:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DecisionTreeClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DecisionTreeClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForestClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomForestClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RandomForestClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GradientBoostingClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoostingClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XGBRFClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRFClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>XGBClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'klasyczne podejscie diff'!$G$6:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.32894211576846299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33013972055888202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32894211576846299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37724550898203502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38602794411177599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36566866267464998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36606786427145699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35808383233532898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.358882235528942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34530938123752403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35808383233532898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35528942115768403</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36487025948103702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36566866267464998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B980-4B39-97A0-F181903CEC5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2027328287"/>
+        <c:axId val="2027324959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2027328287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1200"/>
+                  <a:t>Rodzaj modelu drzewiastego</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027324959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027324959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1200"/>
+                  <a:t>Jakość/accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027328287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wykres jakości modeli na zbiorze o klasie na podstawie przesunięcia 16 </a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>oraz dodatkowymi atrybutami wyliczonymi na podstawie przesunięcia.</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$F$6:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DecisionTreeClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DecisionTreeClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForestClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomForestClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RandomForestClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GradientBoostingClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoostingClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XGBRFClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRFClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>XGBClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'klasyczne podejscie diff'!$M$6:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.349609375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3671875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.380859375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.396484375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.396484375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.392578125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39453125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3671875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.392578125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38671875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.373046875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37109375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D4C-4671-8A18-1B0E0ADF8E8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$F$6:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DecisionTreeClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DecisionTreeClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForestClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomForestClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RandomForestClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GradientBoostingClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoostingClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XGBRFClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRFClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>XGBClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'klasyczne podejscie diff'!$N$6:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39453125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3515625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3984375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36328125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3828125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38671875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D4C-4671-8A18-1B0E0ADF8E8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$F$6:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DecisionTreeClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DecisionTreeClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForestClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomForestClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RandomForestClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GradientBoostingClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoostingClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XGBRFClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRFClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>XGBClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'klasyczne podejscie diff'!$O$6:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3515625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3359375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3515625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3515625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3828125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.328125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4140625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3828125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D4C-4671-8A18-1B0E0ADF8E8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$F$6:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DecisionTreeClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DecisionTreeClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForestClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomForestClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RandomForestClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GradientBoostingClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoostingClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XGBRFClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRFClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>XGBClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'klasyczne podejscie diff'!$P$6:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.515625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.484375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.421875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.515625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.453125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.515625</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.546875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D4C-4671-8A18-1B0E0ADF8E8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1/3 zbioru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'klasyczne podejscie diff'!$F$6:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DecisionTreeClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DecisionTreeClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForestClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomForestClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RandomForestClassifier 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GradientBoostingClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoostingClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XGBRFClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRFClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>XGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>XGBClassifier 2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SXGBClassifier 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SXGBClassifier 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'klasyczne podejscie diff'!$L$6:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.33253493013972002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.338922155688622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33812375249500998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38483033932135702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38483033932135702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35688622754491001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36007984031936102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.354091816367265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38003992015968002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35848303393213499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.341716566866267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34331337325349298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35768463073852202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35728542914171602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4D4C-4671-8A18-1B0E0ADF8E8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2027328287"/>
+        <c:axId val="2027324959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2027328287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rodzaj modelu drzewiastego</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027324959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027324959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Jakość/accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027328287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -3241,7 +5605,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -4175,6 +6539,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6278,20 +8722,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>869497</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>113254</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261362</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>402981</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>83319</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>410307</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6312,16 +9788,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>51289</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>101112</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>535597</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>189036</xdr:rowOff>
+      <xdr:colOff>219806</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6346,6 +9822,75 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18292</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76842</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6675,8 +10220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6692,566 +10237,650 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
+        <v>99</v>
+      </c>
+      <c r="G4" s="21">
         <v>8</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21">
         <v>16</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="4">
+        <v>98</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="23">
         <v>512</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="23">
         <v>256</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="23">
         <v>128</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="23">
         <v>64</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="L5" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="23">
         <v>512</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="23">
         <v>256</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="23">
         <v>128</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="14">
         <v>0.341822522881018</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="14">
         <v>0.3125</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="14">
         <v>0.55078125</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="14">
         <v>0.3359375</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="14">
         <v>0.375</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="14">
         <v>0.31888667992047698</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="14">
         <v>0.3359375</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="14">
         <v>0.37890625</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="14">
         <v>0.15625</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="14">
         <v>0.671875</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="14">
         <v>0.34540389972144803</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="14">
         <v>0.333984375</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="14">
         <v>0.5078125</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="14">
         <v>0.3984375</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="14">
         <v>0.375</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="14">
         <v>0.33041749502982098</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="14">
         <v>0.3125</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="14">
         <v>0.3046875</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="14">
         <v>0.203125</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="14">
         <v>0.578125</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.368881814564265</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.390625</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.515625</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.3984375</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.515625</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0.34592445328031801</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0.400390625</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.265625</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.21875</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.37684042976521998</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.365234375</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.34765625</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0.39872662156784699</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0.3828125</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0.3515625</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.3125</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.37922801432550701</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.365234375</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.34765625</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0.39992041384798999</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.3828125</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0.3515625</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.3125</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.368881814564265</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G11" s="14">
+        <v>0.360525268603263</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.39453125</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.46484375</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.53125</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.38042180660565</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.423828125</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0.39453125</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.37206526064464701</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.365234375</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.45703125</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.34367541766109699</v>
+      </c>
+      <c r="M12" s="14">
         <v>0.390625</v>
       </c>
-      <c r="I8" s="1">
-        <v>0.515625</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.3984375</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.515625</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.34592445328031801</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.400390625</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.265625</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.21875</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.484375</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.351770791882212</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.318359375</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.51171875</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.390625</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.37813121272365802</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.333984375</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.36328125</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="N12" s="14">
+        <v>0.453125</v>
+      </c>
+      <c r="O12" s="14">
         <v>0.3671875</v>
       </c>
-      <c r="P9" s="1">
-        <v>0.171875</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.37684042976521998</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.365234375</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.34765625</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.46875</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.39872662156784699</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.3828125</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.3515625</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.484375</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.37922801432550701</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.365234375</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.34765625</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.46875</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.39992041384798999</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.3828125</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.3515625</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.484375</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.360525268603263</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.39453125</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.46484375</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.38042180660565</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.423828125</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.39453125</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.625</v>
+      <c r="P12" s="14">
+        <v>0.640625</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.36450457620373999</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.396484375</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.4453125</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.5078125</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0.53125</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.35560859188544103</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0.37109375</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0.46484375</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.359375</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.358392999204455</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.380859375</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.4140625</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.328125</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.34765314240254502</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0.279296875</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0.3515625</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.3046875</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.36913285600636397</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.4296875</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.47265625</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0.546875</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0.33651551312649097</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0.326171875</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.34375</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.37828162291169398</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.44140625</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.3828125</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0.453125</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0.34155069582504899</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0.33203125</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0.40234375</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.453125</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.35361972951471699</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.423828125</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.3984375</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.2890625</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0.34711729622266402</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0.390625</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0.34765625</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="1">
-        <v>0.37206526064464701</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.365234375</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.45703125</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.46875</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.34367541766109699</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.390625</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.453125</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="G18" s="14">
+        <v>0.36898608349900502</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.416015625</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0.47265625</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.34375</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0.33518886679920401</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0.369140625</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0.3984375</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.3828125</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.38131212723657998</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.435546875</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.44921875</v>
+      </c>
+      <c r="J19" s="15">
         <v>0.3671875</v>
       </c>
-      <c r="P13" s="1">
-        <v>0.640625</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="K19" s="14">
+        <v>0.515625</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0.35109343936381698</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.396484375</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0.40234375</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.36450457620373999</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.396484375</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.4453125</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.5078125</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.35560859188544103</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.37109375</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.46484375</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.359375</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.609375</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15">
-        <v>0.358392999204455</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.380859375</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.4140625</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.328125</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.34765314240254502</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.279296875</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.3515625</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.3046875</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.484375</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="12"/>
-      <c r="F16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16">
-        <v>0.36913285600636397</v>
-      </c>
-      <c r="H16">
-        <v>0.4296875</v>
-      </c>
-      <c r="I16">
-        <v>0.47265625</v>
-      </c>
-      <c r="J16">
-        <v>0.46875</v>
-      </c>
-      <c r="K16">
-        <v>0.546875</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.33651551312649097</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.326171875</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.34375</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>0.37828162291169398</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1">
-        <v>0.453125</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18">
-        <v>0.35759745425616501</v>
-      </c>
-      <c r="K18">
-        <v>0.28125</v>
-      </c>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>0.35361972951471699</v>
-      </c>
-      <c r="K19">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="21" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="5:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="17"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -7262,8 +10891,8 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="12"/>
+    <row r="24" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="17"/>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -7274,8 +10903,8 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="12"/>
+    <row r="25" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="17"/>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -7286,8 +10915,8 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="12"/>
+    <row r="26" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="17"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -7298,8 +10927,8 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="12"/>
+    <row r="27" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="17"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -7310,8 +10939,8 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="12"/>
+    <row r="28" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="17"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -7322,8 +10951,8 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="12"/>
+    <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="17"/>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -7334,8 +10963,8 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="12"/>
+    <row r="30" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="17"/>
       <c r="F30" s="3"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -7346,8 +10975,8 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="12"/>
+    <row r="31" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="17"/>
       <c r="F31" s="3"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -7358,8 +10987,8 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="12"/>
+    <row r="32" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="17"/>
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -7371,7 +11000,7 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="12"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="3"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -7402,14 +11031,14 @@
     </row>
     <row r="37" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F37" s="3"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
     </row>
     <row r="38" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F38" s="3"/>
@@ -7423,7 +11052,7 @@
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="12"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="3"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -7435,7 +11064,7 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="12"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="3"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -7447,7 +11076,7 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="12"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="3"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -7459,7 +11088,7 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="12"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="3"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -7471,7 +11100,7 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="12"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="3"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -7483,7 +11112,7 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="12"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="3"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -7495,7 +11124,7 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E45" s="12"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="3"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -7507,7 +11136,7 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E46" s="12"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="3"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -7519,7 +11148,7 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E47" s="12"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="3"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -7531,7 +11160,7 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E48" s="12"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -7543,7 +11172,7 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E49" s="12"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -7601,14 +11230,14 @@
     </row>
     <row r="54" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F54" s="3"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
     </row>
     <row r="55" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F55" s="3"/>
@@ -7622,7 +11251,7 @@
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E56" s="12"/>
+      <c r="E56" s="17"/>
       <c r="F56" s="3"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -7634,7 +11263,7 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E57" s="12"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -7646,7 +11275,7 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E58" s="12"/>
+      <c r="E58" s="17"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -7658,7 +11287,7 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E59" s="12"/>
+      <c r="E59" s="17"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -7670,7 +11299,7 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E60" s="12"/>
+      <c r="E60" s="17"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -7682,7 +11311,7 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="12"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -7694,7 +11323,7 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="12"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -7706,7 +11335,7 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="12"/>
+      <c r="E63" s="17"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -7718,7 +11347,7 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="12"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -7730,7 +11359,7 @@
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="12"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -7742,7 +11371,7 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="12"/>
+      <c r="E66" s="17"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -7755,12 +11384,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="G4:K4"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="K37:N37"/>
     <mergeCell ref="E63:E66"/>
@@ -7769,6 +11393,11 @@
     <mergeCell ref="G54:J54"/>
     <mergeCell ref="K54:N54"/>
     <mergeCell ref="E56:E62"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="L4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7777,6 +11406,1194 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="24">
+        <v>8</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="21">
+        <v>16</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="3">
+        <v>512</v>
+      </c>
+      <c r="I5" s="3">
+        <v>256</v>
+      </c>
+      <c r="J5" s="3">
+        <v>128</v>
+      </c>
+      <c r="K5" s="3">
+        <v>64</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="3">
+        <v>512</v>
+      </c>
+      <c r="N5" s="3">
+        <v>256</v>
+      </c>
+      <c r="O5" s="3">
+        <v>128</v>
+      </c>
+      <c r="P5" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.32894211576846299</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.369140625</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.31640625</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.40625</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.33253493013972002</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.349609375</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.40625</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.33013972055888202</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.353515625</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.3671875</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.359375</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0.338922155688622</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.3671875</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.3515625</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.32894211576846299</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.39453125</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.390625</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.453125</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0.33812375249500998</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0.380859375</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.359375</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.359375</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.37724550898203502</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.33984375</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.37890625</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.3515625</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.390625</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0.38483033932135702</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0.396484375</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0.40625</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.3359375</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.38602794411177599</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.365234375</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.37890625</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0.38483033932135702</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.390625</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0.39453125</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.3515625</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.36566866267464998</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.46484375</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.48046875</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.4765625</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.35688622754491001</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.396484375</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0.3515625</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0.3125</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.36606786427145699</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.37109375</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.48046875</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.53125</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0.515625</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.36007984031936102</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.3515625</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.35808383233532898</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.39453125</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.43359375</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.5078125</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.354091816367265</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0.392578125</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0.3984375</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.3828125</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.358882235528942</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.37109375</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.359375</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.390625</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.38003992015968002</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0.39453125</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0.36328125</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.34375</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.34530938123752403</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.48046875</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.53515625</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.5390625</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0.578125</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0.35848303393213499</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0.3671875</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0.390625</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.328125</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.35808383233532898</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.388671875</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.43359375</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.5078125</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0.341716566866267</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0.392578125</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.390625</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.35528942115768403</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.396484375</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.43359375</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.5078125</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0.34331337325349298</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0.38671875</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0.3828125</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0.4140625</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.36487025948103702</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.36328125</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0.39453125</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.4765625</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.359375</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0.35768463073852202</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0.373046875</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0.40625</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.3828125</v>
+      </c>
+      <c r="P18">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.36566866267464998</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.34765625</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.40234375</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.4765625</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0.35728542914171602</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.37109375</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0.38671875</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="P19">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="17"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="17"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="17"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="17"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="17"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="17"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="17"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="17"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="17"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="17"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="17"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F37" s="3"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="17"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="17"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="17"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="17"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="17"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="17"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E45" s="17"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="17"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="17"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="17"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="17"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F52" s="3"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F53" s="3"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F54" s="3"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+    </row>
+    <row r="55" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F55" s="3"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E56" s="17"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E57" s="17"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="17"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="17"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="17"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="17"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="17"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="17"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E64" s="17"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E65" s="17"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E66" s="17"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="E30:E33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AQ77"/>
   <sheetViews>
@@ -7796,15 +12613,15 @@
   <sheetData>
     <row r="1" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -7812,7 +12629,7 @@
     </row>
     <row r="3" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -7828,130 +12645,130 @@
     </row>
     <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="T5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="U5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="V5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="W5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="X5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="Y5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="Z5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="AA5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="8" t="s">
+      <c r="AB5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="AC5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="8" t="s">
+      <c r="AD5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="8" t="s">
+      <c r="AE5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" s="8" t="s">
+      <c r="AF5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AG5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE5" s="8" t="s">
+      <c r="AH5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AI5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="8" t="s">
+      <c r="AK5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AL5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AM5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AN5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AL5" s="8" t="s">
+      <c r="AO5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AM5" s="8" t="s">
+      <c r="AP5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AN5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP5" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ5" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.25">
@@ -8852,15 +13669,15 @@
     </row>
     <row r="14" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -8868,7 +13685,7 @@
     </row>
     <row r="16" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>200</v>
@@ -8884,130 +13701,130 @@
     </row>
     <row r="18" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="E18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="O18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="P18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="Q18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="R18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="S18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="T18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="U18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="V18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="W18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="X18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V18" s="8" t="s">
+      <c r="Y18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="8" t="s">
+      <c r="Z18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X18" s="8" t="s">
+      <c r="AA18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y18" s="8" t="s">
+      <c r="AB18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" s="8" t="s">
+      <c r="AC18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AA18" s="8" t="s">
+      <c r="AD18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AB18" s="8" t="s">
+      <c r="AE18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AC18" s="8" t="s">
+      <c r="AF18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AD18" s="8" t="s">
+      <c r="AG18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE18" s="8" t="s">
+      <c r="AH18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AF18" s="8" t="s">
+      <c r="AI18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AG18" s="8" t="s">
+      <c r="AJ18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AH18" s="8" t="s">
+      <c r="AK18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AI18" s="8" t="s">
+      <c r="AL18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ18" s="8" t="s">
+      <c r="AM18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AK18" s="8" t="s">
+      <c r="AN18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AL18" s="8" t="s">
+      <c r="AO18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AM18" s="8" t="s">
+      <c r="AP18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AN18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ18" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:43" x14ac:dyDescent="0.25">
@@ -9908,15 +14725,15 @@
     </row>
     <row r="27" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>100</v>
@@ -9924,7 +14741,7 @@
     </row>
     <row r="29" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>200</v>
@@ -9940,130 +14757,130 @@
     </row>
     <row r="31" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="E31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="I31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="L31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="M31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="O31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="P31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="Q31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="R31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="S31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="T31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="U31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="8" t="s">
+      <c r="V31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T31" s="8" t="s">
+      <c r="W31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="8" t="s">
+      <c r="X31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V31" s="8" t="s">
+      <c r="Y31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="8" t="s">
+      <c r="Z31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X31" s="8" t="s">
+      <c r="AA31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y31" s="8" t="s">
+      <c r="AB31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z31" s="8" t="s">
+      <c r="AC31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AA31" s="8" t="s">
+      <c r="AD31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AB31" s="8" t="s">
+      <c r="AE31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AC31" s="8" t="s">
+      <c r="AF31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AD31" s="8" t="s">
+      <c r="AG31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE31" s="8" t="s">
+      <c r="AH31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AF31" s="8" t="s">
+      <c r="AI31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AG31" s="8" t="s">
+      <c r="AJ31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AH31" s="8" t="s">
+      <c r="AK31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AI31" s="8" t="s">
+      <c r="AL31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ31" s="8" t="s">
+      <c r="AM31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AK31" s="8" t="s">
+      <c r="AN31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AL31" s="8" t="s">
+      <c r="AO31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AM31" s="8" t="s">
+      <c r="AP31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AN31" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP31" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ31" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:43" x14ac:dyDescent="0.25">
@@ -10964,15 +15781,15 @@
     </row>
     <row r="40" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>100</v>
@@ -10980,7 +15797,7 @@
     </row>
     <row r="42" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>200</v>
@@ -10996,130 +15813,130 @@
     </row>
     <row r="44" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="E44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="H44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="I44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="J44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="K44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="L44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="M44" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="N44" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="O44" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="P44" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="Q44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O44" s="8" t="s">
+      <c r="R44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="S44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q44" s="8" t="s">
+      <c r="T44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R44" s="8" t="s">
+      <c r="U44" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S44" s="8" t="s">
+      <c r="V44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T44" s="8" t="s">
+      <c r="W44" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U44" s="8" t="s">
+      <c r="X44" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V44" s="8" t="s">
+      <c r="Y44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="8" t="s">
+      <c r="Z44" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X44" s="8" t="s">
+      <c r="AA44" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y44" s="8" t="s">
+      <c r="AB44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z44" s="8" t="s">
+      <c r="AC44" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AA44" s="8" t="s">
+      <c r="AD44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AB44" s="8" t="s">
+      <c r="AE44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AC44" s="8" t="s">
+      <c r="AF44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AD44" s="8" t="s">
+      <c r="AG44" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE44" s="8" t="s">
+      <c r="AH44" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AF44" s="8" t="s">
+      <c r="AI44" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AG44" s="8" t="s">
+      <c r="AJ44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AH44" s="8" t="s">
+      <c r="AK44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AI44" s="8" t="s">
+      <c r="AL44" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ44" s="8" t="s">
+      <c r="AM44" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AK44" s="8" t="s">
+      <c r="AN44" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AL44" s="8" t="s">
+      <c r="AO44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AM44" s="8" t="s">
+      <c r="AP44" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AN44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO44" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP44" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ44" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:43" x14ac:dyDescent="0.25">
@@ -12020,15 +16837,15 @@
     </row>
     <row r="53" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
         <v>60</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54">
         <v>100</v>
@@ -12036,7 +16853,7 @@
     </row>
     <row r="55" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C55">
         <v>200</v>
@@ -12052,130 +16869,130 @@
     </row>
     <row r="57" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="E57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="G57" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="H57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="I57" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="J57" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="K57" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="L57" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="M57" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="N57" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="O57" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M57" s="8" t="s">
+      <c r="P57" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N57" s="8" t="s">
+      <c r="Q57" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O57" s="8" t="s">
+      <c r="R57" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P57" s="8" t="s">
+      <c r="S57" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q57" s="8" t="s">
+      <c r="T57" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R57" s="8" t="s">
+      <c r="U57" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S57" s="8" t="s">
+      <c r="V57" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T57" s="8" t="s">
+      <c r="W57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U57" s="8" t="s">
+      <c r="X57" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V57" s="8" t="s">
+      <c r="Y57" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W57" s="8" t="s">
+      <c r="Z57" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X57" s="8" t="s">
+      <c r="AA57" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y57" s="8" t="s">
+      <c r="AB57" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z57" s="8" t="s">
+      <c r="AC57" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AA57" s="8" t="s">
+      <c r="AD57" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AB57" s="8" t="s">
+      <c r="AE57" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AC57" s="8" t="s">
+      <c r="AF57" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AD57" s="8" t="s">
+      <c r="AG57" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE57" s="8" t="s">
+      <c r="AH57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AF57" s="8" t="s">
+      <c r="AI57" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AG57" s="8" t="s">
+      <c r="AJ57" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AH57" s="8" t="s">
+      <c r="AK57" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AI57" s="8" t="s">
+      <c r="AL57" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ57" s="8" t="s">
+      <c r="AM57" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AK57" s="8" t="s">
+      <c r="AN57" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AL57" s="8" t="s">
+      <c r="AO57" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AM57" s="8" t="s">
+      <c r="AP57" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AN57" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO57" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP57" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ57" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="2:43" x14ac:dyDescent="0.25">
@@ -13076,15 +17893,15 @@
     </row>
     <row r="66" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
         <v>60</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="67" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C67">
         <v>100</v>
@@ -13092,7 +17909,7 @@
     </row>
     <row r="68" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C68">
         <v>200</v>
@@ -13108,130 +17925,130 @@
     </row>
     <row r="70" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="E70" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="G70" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="H70" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="I70" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="J70" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="K70" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="L70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="M70" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="N70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L70" s="8" t="s">
+      <c r="O70" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M70" s="8" t="s">
+      <c r="P70" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N70" s="8" t="s">
+      <c r="Q70" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O70" s="8" t="s">
+      <c r="R70" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P70" s="8" t="s">
+      <c r="S70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q70" s="8" t="s">
+      <c r="T70" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R70" s="8" t="s">
+      <c r="U70" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S70" s="8" t="s">
+      <c r="V70" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T70" s="8" t="s">
+      <c r="W70" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U70" s="8" t="s">
+      <c r="X70" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V70" s="8" t="s">
+      <c r="Y70" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W70" s="8" t="s">
+      <c r="Z70" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X70" s="8" t="s">
+      <c r="AA70" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Y70" s="8" t="s">
+      <c r="AB70" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z70" s="8" t="s">
+      <c r="AC70" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AA70" s="8" t="s">
+      <c r="AD70" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AB70" s="8" t="s">
+      <c r="AE70" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AC70" s="8" t="s">
+      <c r="AF70" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AD70" s="8" t="s">
+      <c r="AG70" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE70" s="8" t="s">
+      <c r="AH70" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AF70" s="8" t="s">
+      <c r="AI70" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AG70" s="8" t="s">
+      <c r="AJ70" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AH70" s="8" t="s">
+      <c r="AK70" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AI70" s="8" t="s">
+      <c r="AL70" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AJ70" s="8" t="s">
+      <c r="AM70" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AK70" s="8" t="s">
+      <c r="AN70" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AL70" s="8" t="s">
+      <c r="AO70" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AM70" s="8" t="s">
+      <c r="AP70" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AN70" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO70" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP70" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ70" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:43" x14ac:dyDescent="0.25">
@@ -14135,12 +18952,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S78"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R72" sqref="R72:R78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14155,15 +18972,15 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>250</v>
@@ -14171,7 +18988,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -14187,55 +19004,55 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="Q6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="R6" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -14611,15 +19428,15 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>250</v>
@@ -14627,7 +19444,7 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>500</v>
@@ -14643,55 +19460,55 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="O19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="P19" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="Q19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="R19" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
@@ -15067,15 +19884,15 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>250</v>
@@ -15083,7 +19900,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>500</v>
@@ -15099,55 +19916,55 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="J32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="L32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="M32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="N32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="O32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="P32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="Q32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O32" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="R32" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
@@ -15523,15 +20340,15 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>250</v>
@@ -15539,7 +20356,7 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>500</v>
@@ -15555,55 +20372,55 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="I45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="J45" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="K45" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="L45" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="M45" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="N45" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="O45" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="P45" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="Q45" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O45" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="R45" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
@@ -15986,15 +20803,15 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <v>250</v>
@@ -16002,7 +20819,7 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>500</v>
@@ -16018,55 +20835,55 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="G58" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="H58" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="I58" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="J58" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="K58" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="L58" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="M58" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="N58" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L58" s="8" t="s">
+      <c r="O58" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M58" s="8" t="s">
+      <c r="P58" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N58" s="8" t="s">
+      <c r="Q58" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O58" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="R58" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
@@ -16442,15 +21259,15 @@
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <v>250</v>
@@ -16458,7 +21275,7 @@
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C69">
         <v>500</v>
@@ -16474,55 +21291,55 @@
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="G71" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="H71" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="I71" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="J71" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="K71" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="L71" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="M71" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K71" s="8" t="s">
+      <c r="N71" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="O71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M71" s="8" t="s">
+      <c r="P71" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N71" s="8" t="s">
+      <c r="Q71" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O71" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P71" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q71" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="R71" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
@@ -16901,7 +21718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H21"/>
   <sheetViews>
@@ -16921,25 +21738,25 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -17110,25 +21927,25 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>81</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
